--- a/sample_user-invalid.xlsx
+++ b/sample_user-invalid.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500"/>
+    <workbookView windowWidth="23895" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Simple" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>Role ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>Gender</t>
+    <t>Relation</t>
   </si>
   <si>
     <t>ranjanbhaumik</t>
@@ -58,7 +58,7 @@
     <t>07688765679</t>
   </si>
   <si>
-    <t>MALE</t>
+    <t>FATHER</t>
   </si>
   <si>
     <t>Ranjit</t>
@@ -82,60 +82,63 @@
     <t>07688765681</t>
   </si>
   <si>
+    <t>MOTHER</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>25/05/1972</t>
+  </si>
+  <si>
+    <t>monosom.sharma@indusnet.co.uk</t>
+  </si>
+  <si>
+    <t>07688765682</t>
+  </si>
+  <si>
+    <t>monosom.sharma@talash.net</t>
+  </si>
+  <si>
+    <t>07688765683</t>
+  </si>
+  <si>
+    <t>Ashish</t>
+  </si>
+  <si>
+    <t>ashishmukrjee</t>
+  </si>
+  <si>
+    <t>Mukherjee</t>
+  </si>
+  <si>
+    <t>13/03/2006</t>
+  </si>
+  <si>
+    <t>Swarnendu</t>
+  </si>
+  <si>
+    <t>swarnendu.mukherjee@indusnet.co.in</t>
+  </si>
+  <si>
+    <t>07688765666</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>25/05/1973</t>
+  </si>
+  <si>
+    <t>swarnendu.mukherjee@indusnet.co.uk</t>
+  </si>
+  <si>
+    <t>07688765667</t>
+  </si>
+  <si>
     <t>FEMALE</t>
   </si>
   <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>25/05/1972</t>
-  </si>
-  <si>
-    <t>monosom.sharma@indusnet.co.uk</t>
-  </si>
-  <si>
-    <t>07688765682</t>
-  </si>
-  <si>
-    <t>monosom.sharma@talash.net</t>
-  </si>
-  <si>
-    <t>07688765683</t>
-  </si>
-  <si>
-    <t>Ashish</t>
-  </si>
-  <si>
-    <t>ashishmukrjee</t>
-  </si>
-  <si>
-    <t>Mukherjee</t>
-  </si>
-  <si>
-    <t>13/03/2006</t>
-  </si>
-  <si>
-    <t>Swarnendu</t>
-  </si>
-  <si>
-    <t>swarnendu.mukherjee@indusnet.co.in</t>
-  </si>
-  <si>
-    <t>07688765666</t>
-  </si>
-  <si>
-    <t>Soma</t>
-  </si>
-  <si>
-    <t>25/05/1973</t>
-  </si>
-  <si>
-    <t>swarnendu.mukherjee@indusnet.co.uk</t>
-  </si>
-  <si>
-    <t>07688765667</t>
-  </si>
-  <si>
     <t>Arup</t>
   </si>
   <si>
@@ -236,52 +239,19 @@
   </si>
   <si>
     <t>tony666@yopmail.com</t>
-  </si>
-  <si>
-    <t>RIKISHARMA321</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>12/02/2015</t>
-  </si>
-  <si>
-    <t>RIKISHARMA322</t>
-  </si>
-  <si>
-    <t>gggg@eeee.com</t>
-  </si>
-  <si>
-    <t>ttttt</t>
-  </si>
-  <si>
-    <t>ffffff</t>
-  </si>
-  <si>
-    <t>01/01/1971</t>
-  </si>
-  <si>
-    <t>gggg@eeee2.com</t>
-  </si>
-  <si>
-    <t>yffffff</t>
-  </si>
-  <si>
-    <t>tggtttt</t>
-  </si>
-  <si>
-    <t>97688775621</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -299,6 +269,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,16 +278,345 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -324,31 +624,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -639,26 +1223,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="19.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="39.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -701,13 +1285,13 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
@@ -727,13 +1311,13 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
@@ -753,13 +1337,13 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
@@ -779,13 +1363,13 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H5" t="s">
@@ -805,20 +1389,20 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -844,7 +1428,7 @@
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -867,13 +1451,13 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
@@ -893,59 +1477,59 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -956,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="8" t="s">
         <v>51</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -979,20 +1563,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1003,20 +1587,20 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1027,20 +1611,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1051,20 +1635,20 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
@@ -1075,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="7" t="s">
         <v>70</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -1095,136 +1679,42 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>73</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:ranjit.bhaumik@indusnet.co.in"/>
-    <hyperlink ref="F3" r:id="rId2" tooltip="mailto:ranjit.bhaumik@indusnet.co.uk"/>
-    <hyperlink ref="F4" r:id="rId3" tooltip="mailto:ranjit.bhaumik@indusnet.co.uk"/>
-    <hyperlink ref="F6" r:id="rId4" tooltip="mailto:monosom.sharma@talash.net"/>
-    <hyperlink ref="F7" r:id="rId5" tooltip="mailto:monosom.sharma@indusnet.co.uk" display="mailto:monosom.sharma@indusnet.co.uk"/>
-    <hyperlink ref="F8" r:id="rId6" tooltip="mailto:monosom.sharma@talash.net"/>
-    <hyperlink ref="F5" r:id="rId7" tooltip="mailto:monosom.sharma@indusnet.co.uk"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13" tooltip="mailto:subir@yopmail.com"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F18" r:id="rId16"/>
-    <hyperlink ref="F20" r:id="rId17"/>
-    <hyperlink ref="F17" r:id="rId18" tooltip="mailto:akash44@yopmail.com"/>
-    <hyperlink ref="F23" r:id="rId19"/>
-    <hyperlink ref="F22" r:id="rId20"/>
-    <hyperlink ref="F24" r:id="rId21"/>
+    <hyperlink ref="F2" r:id="rId1" display="ranjit.bhaumik@indusnet.co.in" tooltip="mailto:ranjit.bhaumik@indusnet.co.in"/>
+    <hyperlink ref="F3" r:id="rId2" display="ranjit.bhaumik@indusnet.co.uk" tooltip="mailto:ranjit.bhaumik@indusnet.co.uk"/>
+    <hyperlink ref="F4" r:id="rId2" display="ranjit.bhaumik@indusnet.co.uk" tooltip="mailto:ranjit.bhaumik@indusnet.co.uk"/>
+    <hyperlink ref="F6" r:id="rId3" display="monosom.sharma@talash.net" tooltip="mailto:monosom.sharma@talash.net"/>
+    <hyperlink ref="F7" r:id="rId4" tooltip="mailto:monosom.sharma@indusnet.co.uk"/>
+    <hyperlink ref="F8" r:id="rId3" display="monosom.sharma@talash.net" tooltip="mailto:monosom.sharma@talash.net"/>
+    <hyperlink ref="F5" r:id="rId4" display="monosom.sharma@indusnet.co.uk" tooltip="mailto:monosom.sharma@indusnet.co.uk"/>
+    <hyperlink ref="F9" r:id="rId5" display="swarnendu.mukherjee@indusnet.co.in"/>
+    <hyperlink ref="F10" r:id="rId6" display="swarnendu.mukherjee@indusnet.co.uk"/>
+    <hyperlink ref="F11" r:id="rId7" display="arupg@indusnet.co.in"/>
+    <hyperlink ref="F12" r:id="rId8" display="sourav.basak@indusnet.co.in"/>
+    <hyperlink ref="F13" r:id="rId9" display="sumanta.mondal@indusnet.co.in"/>
+    <hyperlink ref="F14" r:id="rId10" display="subir@yopmail.com" tooltip="mailto:subir@yopmail.com"/>
+    <hyperlink ref="F15" r:id="rId11" display="anu12@yopmail.com"/>
+    <hyperlink ref="F16" r:id="rId12" display="abir44@yopmail.com"/>
+    <hyperlink ref="F18" r:id="rId13" display="ruby66@yopmail.com"/>
+    <hyperlink ref="F20" r:id="rId14" display="tony666@yopmail.com"/>
+    <hyperlink ref="F17" r:id="rId15" display="akash44@yopmail.com" tooltip="mailto:akash44@yopmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sample_user-invalid.xlsx
+++ b/sample_user-invalid.xlsx
@@ -247,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -280,7 +280,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +300,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -300,15 +347,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +379,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,40 +400,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,52 +421,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -431,6 +431,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,7 +497,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,157 +599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +622,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,37 +694,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,179 +722,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -878,7 +878,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -1232,7 +1231,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1285,13 +1284,13 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
@@ -1311,13 +1310,13 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
@@ -1337,13 +1336,13 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
@@ -1363,13 +1362,13 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H5" t="s">
@@ -1389,13 +1388,13 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
@@ -1428,7 +1427,7 @@
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1451,13 +1450,13 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
@@ -1477,13 +1476,13 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H10" t="s">
@@ -1545,13 +1544,13 @@
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H14" t="s">
@@ -1575,7 +1574,7 @@
       <c r="F15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H15" t="s">
@@ -1599,7 +1598,7 @@
       <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H16" t="s">
@@ -1623,7 +1622,7 @@
       <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H17" t="s">
@@ -1647,7 +1646,7 @@
       <c r="F18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H18" t="s">
@@ -1667,7 +1666,7 @@
       <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H19" t="s">
@@ -1681,10 +1680,10 @@
       <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H20" t="s">
